--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Кирилл\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5576F1E-4817-4D0D-8C6B-CD45E512F615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A847206-4714-4B38-A4F8-29F39FF3742F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
   <si>
     <t>Бренд_1</t>
   </si>
@@ -51,13 +51,7 @@
     <t>338112</t>
   </si>
   <si>
-    <t>334420</t>
-  </si>
-  <si>
-    <t>334398</t>
-  </si>
-  <si>
-    <t>633718</t>
+    <t>изменено</t>
   </si>
 </sst>
 </file>
@@ -406,7 +400,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,7 +476,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -496,7 +490,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
